--- a/public/upload/job/change_pass/change pass.xlsx
+++ b/public/upload/job/change_pass/change pass.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="WH" sheetId="1" r:id="rId1"/>
+    <sheet name="QC" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
   <si>
     <t>Gửi cho ai</t>
   </si>
@@ -57,13 +58,55 @@
     <t>TRANIT,HIENIT</t>
   </si>
   <si>
-    <t>QUYNHNHU</t>
-  </si>
-  <si>
-    <t>est@gmail.com</t>
-  </si>
-  <si>
     <t>Tủ 8-15</t>
+  </si>
+  <si>
+    <t>E2003</t>
+  </si>
+  <si>
+    <t>daolytran@pymepharco.com</t>
+  </si>
+  <si>
+    <t>Buồng lấy mẫu</t>
+  </si>
+  <si>
+    <t>Empower</t>
+  </si>
+  <si>
+    <t>E5001</t>
+  </si>
+  <si>
+    <t>E5002</t>
+  </si>
+  <si>
+    <t>LabX</t>
+  </si>
+  <si>
+    <t>JASCO</t>
+  </si>
+  <si>
+    <t>E5033</t>
+  </si>
+  <si>
+    <t>E5048</t>
+  </si>
+  <si>
+    <t>E5064</t>
+  </si>
+  <si>
+    <t>Tủ vi khí hâu</t>
+  </si>
+  <si>
+    <t>Autopol</t>
+  </si>
+  <si>
+    <t>TRANIT</t>
+  </si>
+  <si>
+    <t>E5049</t>
+  </si>
+  <si>
+    <t>TOC</t>
   </si>
 </sst>
 </file>
@@ -395,21 +438,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.5546875" customWidth="1"/>
-    <col min="3" max="4" width="29.77734375" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" customWidth="1"/>
-    <col min="6" max="6" width="46.33203125" customWidth="1"/>
-    <col min="7" max="7" width="20.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="4" width="29.7109375" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+    <col min="6" max="6" width="46.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -432,7 +475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>90</v>
       </c>
@@ -449,44 +492,44 @@
         <v>44104</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1">
         <v>44104</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="G3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>90</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -495,7 +538,7 @@
         <v>44104</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G4">
         <v>10</v>
@@ -509,4 +552,194 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="4" width="29.7109375" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+    <col min="6" max="6" width="46.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1">
+        <v>44120</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1">
+        <v>44120</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1">
+        <v>44120</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1">
+        <v>44120</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1">
+        <v>44120</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>90</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1">
+        <v>44123</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F5:F7" r:id="rId4" display="daolytran@pymepharco.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>